--- a/2024/shuffle-architecute/Teste10/content/results/metrics_4_2.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_4_2.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_24</t>
+          <t>model_4_2_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9875353445118147</v>
+        <v>0.9362108567506795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7221796380818135</v>
+        <v>0.7575040308880778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4391210096044191</v>
+        <v>0.947074586719164</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9347604621589245</v>
+        <v>0.1709922324532813</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9153840337735816</v>
+        <v>0.6681092378434597</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0523114912211895</v>
+        <v>0.2677093744277954</v>
       </c>
       <c r="H2" t="n">
-        <v>1.857786059379578</v>
+        <v>1.621571779251099</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1085188388824463</v>
+        <v>0.0496336966753006</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2170126140117645</v>
+        <v>0.8852549195289612</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1627656221389771</v>
+        <v>0.4674443602561951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_23</t>
+          <t>model_4_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9875716707623357</v>
+        <v>0.933797030474029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7220636791120154</v>
+        <v>0.7573646434160004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4464774928402964</v>
+        <v>0.9721008545754446</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9347187928270642</v>
+        <v>0.2604998288929853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.915717913360208</v>
+        <v>0.7103728237084422</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05215903744101524</v>
+        <v>0.2778396904468536</v>
       </c>
       <c r="H3" t="n">
-        <v>1.858561396598816</v>
+        <v>1.622503757476807</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1070955097675323</v>
+        <v>0.02616394869983196</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2171512246131897</v>
+        <v>0.7896743416786194</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1621233820915222</v>
+        <v>0.4079191386699677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_22</t>
+          <t>model_4_2_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.987609618576614</v>
+        <v>0.9372283646850958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7219334013666436</v>
+        <v>0.7569116534028378</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4545889038343596</v>
+        <v>0.9193115926229576</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9346695403585549</v>
+        <v>0.08517508099274895</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9160833025618758</v>
+        <v>0.6263336802266107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0519997775554657</v>
+        <v>0.2634391188621521</v>
       </c>
       <c r="H4" t="n">
-        <v>1.859432458877563</v>
+        <v>1.625532865524292</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1055261194705963</v>
+        <v>0.07566996663808823</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2173150330781937</v>
+        <v>0.9768946170806885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1614205241203308</v>
+        <v>0.5262822508811951</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_21</t>
+          <t>model_4_2_0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.987648793028149</v>
+        <v>0.9294033478462067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7217868548856765</v>
+        <v>0.7560946065533424</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4635182104216694</v>
+        <v>0.991634681135545</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9346112131807223</v>
+        <v>0.3535222422838306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9164818935146887</v>
+        <v>0.752140222123427</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05183537304401398</v>
+        <v>0.2962790429592133</v>
       </c>
       <c r="H5" t="n">
-        <v>1.86041259765625</v>
+        <v>1.630996465682983</v>
       </c>
       <c r="I5" t="n">
-        <v>0.103798471391201</v>
+        <v>0.007845034822821617</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2175090610980988</v>
+        <v>0.6903404593467712</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1606537997722626</v>
+        <v>0.3490927219390869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_20</t>
+          <t>model_4_2_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9876886263424972</v>
+        <v>0.93723952060768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7216218174896664</v>
+        <v>0.7558451470339704</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4733422807381273</v>
+        <v>0.8903714584834659</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9345418096334499</v>
+        <v>0.003032585286103395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9169159743273172</v>
+        <v>0.5855590563391457</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0516681969165802</v>
+        <v>0.263392299413681</v>
       </c>
       <c r="H6" t="n">
-        <v>1.861516237258911</v>
+        <v>1.632664680480957</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1018977165222168</v>
+        <v>0.1028101518750191</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2177399396896362</v>
+        <v>1.064610362052917</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1598188132047653</v>
+        <v>0.5837103724479675</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_19</t>
+          <t>model_4_2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9877282936595431</v>
+        <v>0.9365233499517838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7214357456668945</v>
+        <v>0.7544793616994125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4841323027504787</v>
+        <v>0.8612068561900521</v>
       </c>
       <c r="E7" t="n">
-        <v>0.934458947512141</v>
+        <v>-0.07538523718684997</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9173869182310157</v>
+        <v>0.5461219062861078</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05150172114372253</v>
+        <v>0.2663979232311249</v>
       </c>
       <c r="H7" t="n">
-        <v>1.862760543823242</v>
+        <v>1.641797661781311</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09981005638837814</v>
+        <v>0.130160853266716</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2180155664682388</v>
+        <v>1.148348689079285</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1589129269123077</v>
+        <v>0.6392548084259033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_18</t>
+          <t>model_4_2_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9877667393357168</v>
+        <v>0.935288987124884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7212255873178313</v>
+        <v>0.7529368732990321</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4959727417636403</v>
+        <v>0.8324187630980742</v>
       </c>
       <c r="E8" t="n">
-        <v>0.934359917298799</v>
+        <v>-0.1499409729301568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9178968424360447</v>
+        <v>0.5082738711131178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05134037509560585</v>
+        <v>0.2715782523155212</v>
       </c>
       <c r="H8" t="n">
-        <v>1.864165902137756</v>
+        <v>1.652112245559692</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0975191742181778</v>
+        <v>0.1571584492921829</v>
       </c>
       <c r="J8" t="n">
-        <v>0.21834497153759</v>
+        <v>1.227962970733643</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1579320430755615</v>
+        <v>0.6925610303878784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_17</t>
+          <t>model_4_2_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9878024427960638</v>
+        <v>0.9336974397871716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7209878598097087</v>
+        <v>0.7513050750961165</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5089346966469461</v>
+        <v>0.8043924748835196</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9342411235331599</v>
+        <v>-0.2204534133791494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9184460008214606</v>
+        <v>0.4722127329368649</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05119053274393082</v>
+        <v>0.2782576680183411</v>
       </c>
       <c r="H9" t="n">
-        <v>1.865755558013916</v>
+        <v>1.663024187088013</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09501129388809204</v>
+        <v>0.1834416389465332</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2187401354312897</v>
+        <v>1.30325973033905</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1568756848573685</v>
+        <v>0.743350625038147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_16</t>
+          <t>model_4_2_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9878334655406372</v>
+        <v>0.9318734667118226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7207185247131686</v>
+        <v>0.7496460696571857</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5231041313506603</v>
+        <v>0.7773815712851747</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9340982753736613</v>
+        <v>-0.2867569351522392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9190350811946164</v>
+        <v>0.4380848498039961</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05106034129858017</v>
+        <v>0.2859124839305878</v>
       </c>
       <c r="H10" t="n">
-        <v>1.86755645275116</v>
+        <v>1.674118041992188</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09226979315280914</v>
+        <v>0.2087725847959518</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2192152887582779</v>
+        <v>1.374061703681946</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1557425260543823</v>
+        <v>0.7914172410964966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_15</t>
+          <t>model_4_2_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9878571886378595</v>
+        <v>0.9299135744309999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7204128089183477</v>
+        <v>0.7480034348998486</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5385554586939869</v>
+        <v>0.751555317605493</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9339258447673372</v>
+        <v>-0.3487489437252522</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9196630335503855</v>
+        <v>0.4059859047357058</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05096078291535378</v>
+        <v>0.294137716293335</v>
       </c>
       <c r="H11" t="n">
-        <v>1.869600892066956</v>
+        <v>1.685102224349976</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08928026258945465</v>
+        <v>0.2329925745725632</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2197888642549515</v>
+        <v>1.44025981426239</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1545346230268478</v>
+        <v>0.8366262912750244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_14</t>
+          <t>model_4_2_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9878702481169747</v>
+        <v>0.9278913940474495</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7200651102299859</v>
+        <v>0.7464071522811495</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5553575504400262</v>
+        <v>0.7270271455293766</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9337172739495401</v>
+        <v>-0.406406825162049</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9203277221640797</v>
+        <v>0.3759622329265382</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05090596526861191</v>
+        <v>0.3026244044303894</v>
       </c>
       <c r="H12" t="n">
-        <v>1.871925830841064</v>
+        <v>1.695776462554932</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08602939546108246</v>
+        <v>0.2559951841831207</v>
       </c>
       <c r="J12" t="n">
-        <v>0.220482662320137</v>
+        <v>1.501829862594604</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1532560437917709</v>
+        <v>0.8789125084877014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_13</t>
+          <t>model_4_2_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9878682893113734</v>
+        <v>0.9258623108792515</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7196688265765536</v>
+        <v>0.7448772589637189</v>
       </c>
       <c r="D13" t="n">
-        <v>0.573575459187627</v>
+        <v>0.7038674843842937</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9334641861995531</v>
+        <v>-0.4597838280477671</v>
       </c>
       <c r="F13" t="n">
-        <v>0.921025173878634</v>
+        <v>0.3480169676724295</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05091419070959091</v>
+        <v>0.3111400008201599</v>
       </c>
       <c r="H13" t="n">
-        <v>1.874575853347778</v>
+        <v>1.70600700378418</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08250459283590317</v>
+        <v>0.2777144312858582</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2213245332241058</v>
+        <v>1.558828353881836</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1519144326448441</v>
+        <v>0.9182714223861694</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9878457090308065</v>
+        <v>0.9238671063504856</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7192161734185174</v>
+        <v>0.7434263105901826</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5932539418654798</v>
+        <v>0.6821159590623698</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9331565387618308</v>
+        <v>-0.5089997088249676</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9217487664655286</v>
+        <v>0.3221179920213536</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05100895464420319</v>
+        <v>0.3195134401321411</v>
       </c>
       <c r="H14" t="n">
-        <v>1.877602815628052</v>
+        <v>1.715709447860718</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07869720458984375</v>
+        <v>0.2981131374835968</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2223478853702545</v>
+        <v>1.611383438110352</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1505225449800491</v>
+        <v>0.954748272895813</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_11</t>
+          <t>model_4_2_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9877952860057895</v>
+        <v>0.9219349913019416</v>
       </c>
       <c r="C15" t="n">
-        <v>0.718697901085269</v>
+        <v>0.7420615109745456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6144153463644593</v>
+        <v>0.6617834524935838</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9327813897117955</v>
+        <v>-0.5542224118801971</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9224886724638205</v>
+        <v>0.2982052137732814</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05122057348489761</v>
+        <v>0.32762211561203</v>
       </c>
       <c r="H15" t="n">
-        <v>1.881068468093872</v>
+        <v>1.724835872650146</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07460290193557739</v>
+        <v>0.3171810507774353</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2235957682132721</v>
+        <v>1.659674406051636</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1490992903709412</v>
+        <v>0.9884276390075684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_10</t>
+          <t>model_4_2_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9877078680555879</v>
+        <v>0.9200859380061842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7181029846833038</v>
+        <v>0.7407861934299229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6370526325506481</v>
+        <v>0.6428590480023594</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9323228656007192</v>
+        <v>-0.5956581593215957</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9232307418747543</v>
+        <v>0.276196831755636</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05158744379878044</v>
+        <v>0.3353821635246277</v>
       </c>
       <c r="H16" t="n">
-        <v>1.885046601295471</v>
+        <v>1.73336386680603</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07022303342819214</v>
+        <v>0.334928423166275</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2251210063695908</v>
+        <v>1.703921556472778</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1476718485355377</v>
+        <v>1.019424915313721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_9</t>
+          <t>model_4_2_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9875717756458989</v>
+        <v>0.9183329050059482</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7174183081300309</v>
+        <v>0.7396007866643008</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6611133547751544</v>
+        <v>0.6253115247546374</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9317611138778581</v>
+        <v>-0.6335327451397872</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9239549651399027</v>
+        <v>0.2559968297782065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05215859413146973</v>
+        <v>0.3427393436431885</v>
       </c>
       <c r="H17" t="n">
-        <v>1.889625191688538</v>
+        <v>1.741290807723999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06556776911020279</v>
+        <v>0.3513846099376678</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2269896268844604</v>
+        <v>1.744365692138672</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1462787389755249</v>
+        <v>1.047875165939331</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_8</t>
+          <t>model_4_2_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9873721998442206</v>
+        <v>0.9166834605470623</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7166281221806206</v>
+        <v>0.7385038264808774</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6864827691102131</v>
+        <v>0.6090977267126075</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9310711545725033</v>
+        <v>-0.6680830762404437</v>
       </c>
       <c r="F18" t="n">
-        <v>0.924634307071692</v>
+        <v>0.2375010508969844</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05299617722630501</v>
+        <v>0.3496616780757904</v>
       </c>
       <c r="H18" t="n">
-        <v>1.894909024238586</v>
+        <v>1.748626112937927</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06065929681062698</v>
+        <v>0.3665899634361267</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2292847037315369</v>
+        <v>1.78126049041748</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1449719816446304</v>
+        <v>1.073925137519836</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_7</t>
+          <t>model_4_2_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9870904316623212</v>
+        <v>0.9151412257848754</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7157135705181861</v>
+        <v>0.7374923948728881</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7129655789188678</v>
+        <v>0.5941610025476894</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9302221111731122</v>
+        <v>-0.699543582627751</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9252321220694422</v>
+        <v>0.2206017975642811</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05417869240045547</v>
+        <v>0.3561341464519501</v>
       </c>
       <c r="H19" t="n">
-        <v>1.901024699211121</v>
+        <v>1.75538969039917</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05553540587425232</v>
+        <v>0.380597710609436</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2321089655160904</v>
+        <v>1.814855575561523</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1438220292329788</v>
+        <v>1.097726583480835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_6</t>
+          <t>model_4_2_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9867028358963121</v>
+        <v>0.9137065428200974</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7146519397572393</v>
+        <v>0.7365627084825553</v>
       </c>
       <c r="D20" t="n">
-        <v>0.740259468082056</v>
+        <v>0.5804379665762283</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9291751808117648</v>
+        <v>-0.728150943576646</v>
       </c>
       <c r="F20" t="n">
-        <v>0.925699569358101</v>
+        <v>0.205188199453935</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05580535531044006</v>
+        <v>0.3621551394462585</v>
       </c>
       <c r="H20" t="n">
-        <v>1.908123731613159</v>
+        <v>1.761606454849243</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05025458708405495</v>
+        <v>0.3934672176837921</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2355914562940598</v>
+        <v>1.845403790473938</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1429228633642197</v>
+        <v>1.119435429573059</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_5</t>
+          <t>model_4_2_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9861796800681023</v>
+        <v>0.9123776616396402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7134158166419852</v>
+        <v>0.7357104353681339</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7679249644314635</v>
+        <v>0.5678596439684644</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9278818254136004</v>
+        <v>-0.7541318191211239</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9259725345832928</v>
+        <v>0.1911512557832938</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05800092592835426</v>
+        <v>0.3677322268486023</v>
       </c>
       <c r="H21" t="n">
-        <v>1.91638970375061</v>
+        <v>1.767305612564087</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04490186646580696</v>
+        <v>0.405263215303421</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2398936748504639</v>
+        <v>1.873147487640381</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1423977911472321</v>
+        <v>1.139205455780029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_4</t>
+          <t>model_4_2_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9854835702774517</v>
+        <v>0.9111513897102901</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7119721279547335</v>
+        <v>0.734930831347923</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7953384209104828</v>
+        <v>0.5563550519792168</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9262813007562553</v>
+        <v>-0.7777006339251278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.92596733058699</v>
+        <v>0.1783865088250608</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06092235073447227</v>
+        <v>0.3728786110877991</v>
       </c>
       <c r="H22" t="n">
-        <v>1.926043748855591</v>
+        <v>1.772518754005432</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03959790989756584</v>
+        <v>0.4160522818565369</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2452176660299301</v>
+        <v>1.8983154296875</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1424078047275543</v>
+        <v>1.157183766365051</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_3</t>
+          <t>model_4_2_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9845676218218079</v>
+        <v>0.910023187886386</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7102806411026261</v>
+        <v>0.73421912469335</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8216474801433604</v>
+        <v>0.5458520102379065</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9242977952555348</v>
+        <v>-0.7990629865106842</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9255754281629587</v>
+        <v>0.1667914835336904</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06476638466119766</v>
+        <v>0.3776134252548218</v>
       </c>
       <c r="H23" t="n">
-        <v>1.937354564666748</v>
+        <v>1.777277946472168</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0345076359808445</v>
+        <v>0.4259020984172821</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2518155872821808</v>
+        <v>1.921127080917358</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1431616544723511</v>
+        <v>1.173514485359192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_2</t>
+          <t>model_4_2_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9833732790430922</v>
+        <v>0.9089880527478394</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7082926284883815</v>
+        <v>0.7335704299395178</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8457140934582452</v>
+        <v>0.5362796072068696</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9218367803772602</v>
+        <v>-0.8184093872323162</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9246578954418808</v>
+        <v>0.1562706442639724</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06977879256010056</v>
+        <v>0.3819576501846313</v>
       </c>
       <c r="H24" t="n">
-        <v>1.950648427009583</v>
+        <v>1.781615734100342</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02985122986137867</v>
+        <v>0.4348791539669037</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2600018978118896</v>
+        <v>1.941786170005798</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1449266076087952</v>
+        <v>1.188332319259644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_1</t>
+          <t>model_4_2_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.981827361641339</v>
+        <v>0.9080404853314381</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7059486298708841</v>
+        <v>0.7329800444646135</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8660389336405678</v>
+        <v>0.5275669260726614</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9187807466606037</v>
+        <v>-0.8359161321697501</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9230377726175356</v>
+        <v>0.1467331829534105</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07626667618751526</v>
+        <v>0.3859344124794006</v>
       </c>
       <c r="H25" t="n">
-        <v>1.966322898864746</v>
+        <v>1.785563707351685</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02591877989470959</v>
+        <v>0.4430499076843262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2701674699783325</v>
+        <v>1.960480690002441</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1480430364608765</v>
+        <v>1.201765179634094</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_0</t>
+          <t>model_4_2_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9798389805968288</v>
+        <v>0.907174721250888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7031760111158362</v>
+        <v>0.7324434159573998</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8806956217329062</v>
+        <v>0.5196462006712658</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9149838042325298</v>
+        <v>-0.8517511186135178</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9204919085470089</v>
+        <v>0.138093227596629</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08461148291826248</v>
+        <v>0.3895678222179413</v>
       </c>
       <c r="H26" t="n">
-        <v>1.984863519668579</v>
+        <v>1.789152145385742</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02308300510048866</v>
+        <v>0.4504780173301697</v>
       </c>
       <c r="J26" t="n">
-        <v>0.282797634601593</v>
+        <v>1.977390170097351</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1529402136802673</v>
+        <v>1.213933944702148</v>
       </c>
     </row>
   </sheetData>
